--- a/output_data.xlsx
+++ b/output_data.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -60,12 +60,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F5F5F5"/>
-        <bgColor rgb="00F5F5F5"/>
       </patternFill>
     </fill>
     <fill>
@@ -121,9 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -142,12 +136,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +516,7 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="3" customWidth="1" min="7" max="7"/>
     <col width="35" customWidth="1" min="8" max="8"/>
     <col width="35" customWidth="1" min="9" max="9"/>
     <col width="35" customWidth="1" min="10" max="10"/>
@@ -717,78 +705,78 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Thu nhập từ hoạt động thẻ</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>9149992377</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" s="10" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>9149992377</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr"/>
-      <c r="H4" s="10" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>76707897394</t>
         </is>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>42842703343</t>
         </is>
       </c>
-      <c r="J4" s="10" t="inlineStr">
+      <c r="J4" s="7" t="inlineStr">
         <is>
           <t>101531770371</t>
         </is>
       </c>
-      <c r="K4" s="10" t="inlineStr">
+      <c r="K4" s="7" t="inlineStr">
         <is>
           <t>20705854333</t>
         </is>
       </c>
-      <c r="L4" s="10" t="inlineStr">
+      <c r="L4" s="7" t="inlineStr">
         <is>
           <t>58153253689</t>
         </is>
       </c>
-      <c r="M4" s="10" t="inlineStr">
+      <c r="M4" s="7" t="inlineStr">
         <is>
           <t>268557868939</t>
         </is>
       </c>
-      <c r="N4" s="10" t="inlineStr">
+      <c r="N4" s="7" t="inlineStr">
         <is>
           <t>112953126881</t>
         </is>
       </c>
-      <c r="O4" s="10" t="inlineStr">
+      <c r="O4" s="7" t="inlineStr">
         <is>
           <t>681452474950</t>
         </is>
       </c>
-      <c r="P4" s="9" t="n">
+      <c r="P4" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -869,78 +857,78 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="9" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Lãi quá hạn</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>13591737</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="inlineStr">
         <is>
           <t>13591737</t>
         </is>
       </c>
       <c r="G6" s="8" t="inlineStr"/>
-      <c r="H6" s="10" t="inlineStr">
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>64191654.44240644996939216937</t>
         </is>
       </c>
-      <c r="I6" s="10" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
         <is>
           <t>55514989.30377810654776799691</t>
         </is>
       </c>
-      <c r="J6" s="10" t="inlineStr">
+      <c r="J6" s="7" t="inlineStr">
         <is>
           <t>87499119.59609738195169104726</t>
         </is>
       </c>
-      <c r="K6" s="10" t="inlineStr">
+      <c r="K6" s="7" t="inlineStr">
         <is>
           <t>762808.01117628774198662203</t>
         </is>
       </c>
-      <c r="L6" s="10" t="inlineStr">
+      <c r="L6" s="7" t="inlineStr">
         <is>
           <t>53187353.55224852122302653497</t>
         </is>
       </c>
-      <c r="M6" s="10" t="inlineStr">
+      <c r="M6" s="7" t="inlineStr">
         <is>
           <t>63407211.71789865491015670263</t>
         </is>
       </c>
-      <c r="N6" s="10" t="inlineStr">
+      <c r="N6" s="7" t="inlineStr">
         <is>
           <t>233448619.37639459765584300946</t>
         </is>
       </c>
-      <c r="O6" s="10" t="inlineStr">
+      <c r="O6" s="7" t="inlineStr">
         <is>
           <t>558011755.99999999999986408263</t>
         </is>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -1021,78 +1009,78 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="9" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Phí tăng hạn mức</t>
         </is>
       </c>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>1874893661</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
         <is>
           <t>1874893661</t>
         </is>
       </c>
       <c r="G8" s="8" t="inlineStr"/>
-      <c r="H8" s="10" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>3625425755.59281433841091710950</t>
         </is>
       </c>
-      <c r="I8" s="10" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
         <is>
           <t>2101737612.06347085647355207371</t>
         </is>
       </c>
-      <c r="J8" s="10" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>5004389957.78437619676509858487</t>
         </is>
       </c>
-      <c r="K8" s="10" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>1028260225.07912292300581351455</t>
         </is>
       </c>
-      <c r="L8" s="10" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>2778679323.72987595819635687175</t>
         </is>
       </c>
-      <c r="M8" s="10" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12950572262.15676273060086170725</t>
         </is>
       </c>
-      <c r="N8" s="10" t="inlineStr">
+      <c r="N8" s="7" t="inlineStr">
         <is>
           <t>5490859662.97415401627589817331</t>
         </is>
       </c>
-      <c r="O8" s="10" t="inlineStr">
+      <c r="O8" s="7" t="inlineStr">
         <is>
           <t>32979924799.38057701972849803494</t>
         </is>
       </c>
-      <c r="P8" s="9" t="n">
+      <c r="P8" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -1173,78 +1161,78 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="9" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Chi phí thuần KDV</t>
         </is>
       </c>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>-132141107393</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" s="10" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>-132141107393</t>
         </is>
       </c>
       <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="10" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>-15195581756.01390726358487220167</t>
         </is>
       </c>
-      <c r="I10" s="10" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
         <is>
           <t>-8486998384.96849250603876598337</t>
         </is>
       </c>
-      <c r="J10" s="10" t="inlineStr">
+      <c r="J10" s="7" t="inlineStr">
         <is>
           <t>-20113109209.35292949151941937596</t>
         </is>
       </c>
-      <c r="K10" s="10" t="inlineStr">
+      <c r="K10" s="7" t="inlineStr">
         <is>
           <t>-4101761526.96667292152579633501</t>
         </is>
       </c>
-      <c r="L10" s="10" t="inlineStr">
+      <c r="L10" s="7" t="inlineStr">
         <is>
           <t>-11519967967.19051587919699595366</t>
         </is>
       </c>
-      <c r="M10" s="10" t="inlineStr">
+      <c r="M10" s="7" t="inlineStr">
         <is>
           <t>-53200429060.41959841696356842836</t>
         </is>
       </c>
-      <c r="N10" s="10" t="inlineStr">
+      <c r="N10" s="7" t="inlineStr">
         <is>
           <t>-22375642305.79342545998438660720</t>
         </is>
       </c>
-      <c r="O10" s="10" t="inlineStr">
+      <c r="O10" s="7" t="inlineStr">
         <is>
           <t>-134993490210.70554193881380488523</t>
         </is>
       </c>
-      <c r="P10" s="9" t="n">
+      <c r="P10" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -1325,78 +1313,78 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="9" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>CP vốn TT 2</t>
         </is>
       </c>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>-9320711657</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" s="10" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>-9320711657</t>
         </is>
       </c>
       <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>-1071836302.89205680900822303539</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
+      <c r="I12" s="7" t="inlineStr">
         <is>
           <t>-598639335.93692947233701762743</t>
         </is>
       </c>
-      <c r="J12" s="10" t="inlineStr">
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>-1418699261.45375105407116023759</t>
         </is>
       </c>
-      <c r="K12" s="10" t="inlineStr">
+      <c r="K12" s="7" t="inlineStr">
         <is>
           <t>-289322053.01510620245700680077</t>
         </is>
       </c>
-      <c r="L12" s="10" t="inlineStr">
+      <c r="L12" s="7" t="inlineStr">
         <is>
           <t>-812573027.71587977541866886468</t>
         </is>
       </c>
-      <c r="M12" s="10" t="inlineStr">
+      <c r="M12" s="7" t="inlineStr">
         <is>
           <t>-3752548083.51274907554498307711</t>
         </is>
       </c>
-      <c r="N12" s="10" t="inlineStr">
+      <c r="N12" s="7" t="inlineStr">
         <is>
           <t>-1578289407.33940878998727780313</t>
         </is>
       </c>
-      <c r="O12" s="10" t="inlineStr">
+      <c r="O12" s="7" t="inlineStr">
         <is>
           <t>-9521907471.86588117882433744610</t>
         </is>
       </c>
-      <c r="P12" s="9" t="n">
+      <c r="P12" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -1477,78 +1465,78 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>CP vốn CCTG</t>
         </is>
       </c>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>-122820395736</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>-122820395736</t>
         </is>
       </c>
       <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="10" t="inlineStr">
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>-14123745453.12185045457664916628</t>
         </is>
       </c>
-      <c r="I14" s="10" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>-7888359049.03156303370174835594</t>
         </is>
       </c>
-      <c r="J14" s="10" t="inlineStr">
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>-18694409947.89917843744825913837</t>
         </is>
       </c>
-      <c r="K14" s="10" t="inlineStr">
+      <c r="K14" s="7" t="inlineStr">
         <is>
           <t>-3812439473.95156671906878953424</t>
         </is>
       </c>
-      <c r="L14" s="10" t="inlineStr">
+      <c r="L14" s="7" t="inlineStr">
         <is>
           <t>-10707394939.47463610377832708898</t>
         </is>
       </c>
-      <c r="M14" s="10" t="inlineStr">
+      <c r="M14" s="7" t="inlineStr">
         <is>
           <t>-49447880976.90684934141858535125</t>
         </is>
       </c>
-      <c r="N14" s="10" t="inlineStr">
+      <c r="N14" s="7" t="inlineStr">
         <is>
           <t>-20797352898.45401666999710880407</t>
         </is>
       </c>
-      <c r="O14" s="10" t="inlineStr">
+      <c r="O14" s="7" t="inlineStr">
         <is>
           <t>-125471582738.83966075998946743913</t>
         </is>
       </c>
-      <c r="P14" s="9" t="n">
+      <c r="P14" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -1629,78 +1617,78 @@
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="9" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>DT Fintech</t>
         </is>
       </c>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P16" s="9" t="n">
+      <c r="H16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -1781,78 +1769,78 @@
       </c>
     </row>
     <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="9" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>DT Kinh doanh</t>
         </is>
       </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>1745271</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" s="10" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr">
         <is>
           <t>1745271</t>
         </is>
       </c>
       <c r="G18" s="8" t="inlineStr"/>
-      <c r="H18" s="10" t="inlineStr">
+      <c r="H18" s="7" t="inlineStr">
         <is>
           <t>5445449.93983854334506249708</t>
         </is>
       </c>
-      <c r="I18" s="10" t="inlineStr">
+      <c r="I18" s="7" t="inlineStr">
         <is>
           <t>3391861.57676268149079353843</t>
         </is>
       </c>
-      <c r="J18" s="10" t="inlineStr">
+      <c r="J18" s="7" t="inlineStr">
         <is>
           <t>6684151.27061088470072785644</t>
         </is>
       </c>
-      <c r="K18" s="10" t="inlineStr">
+      <c r="K18" s="7" t="inlineStr">
         <is>
           <t>1755623.83468639563674043485</t>
         </is>
       </c>
-      <c r="L18" s="10" t="inlineStr">
+      <c r="L18" s="7" t="inlineStr">
         <is>
           <t>3335726.86869875640646613991</t>
         </is>
       </c>
-      <c r="M18" s="10" t="inlineStr">
+      <c r="M18" s="7" t="inlineStr">
         <is>
           <t>17351807.37828890923333014146</t>
         </is>
       </c>
-      <c r="N18" s="10" t="inlineStr">
+      <c r="N18" s="7" t="inlineStr">
         <is>
           <t>8582863.81284760366132074808</t>
         </is>
       </c>
-      <c r="O18" s="10" t="inlineStr">
+      <c r="O18" s="7" t="inlineStr">
         <is>
           <t>46547484.68173377447444135625</t>
         </is>
       </c>
-      <c r="P18" s="9" t="n">
+      <c r="P18" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -1933,78 +1921,78 @@
       </c>
     </row>
     <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="9" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">CP thuần KD khác </t>
         </is>
       </c>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>-177774509</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" s="10" t="inlineStr">
+      <c r="C20" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
         <is>
           <t>-177774509</t>
         </is>
       </c>
       <c r="G20" s="8" t="inlineStr"/>
-      <c r="H20" s="10" t="inlineStr">
+      <c r="H20" s="7" t="inlineStr">
         <is>
           <t>-5112847483.28061406076403205732</t>
         </is>
       </c>
-      <c r="I20" s="10" t="inlineStr">
+      <c r="I20" s="7" t="inlineStr">
         <is>
           <t>-3239783177.01585571040211480897</t>
         </is>
       </c>
-      <c r="J20" s="10" t="inlineStr">
+      <c r="J20" s="7" t="inlineStr">
         <is>
           <t>-6169920131.43955876063230674276</t>
         </is>
       </c>
-      <c r="K20" s="10" t="inlineStr">
+      <c r="K20" s="7" t="inlineStr">
         <is>
           <t>-1629031307.17657209298800768815</t>
         </is>
       </c>
-      <c r="L20" s="10" t="inlineStr">
+      <c r="L20" s="7" t="inlineStr">
         <is>
           <t>-3188502430.91926634263109995389</t>
         </is>
       </c>
-      <c r="M20" s="10" t="inlineStr">
+      <c r="M20" s="7" t="inlineStr">
         <is>
           <t>-16485262716.41232398813756278134</t>
         </is>
       </c>
-      <c r="N20" s="10" t="inlineStr">
+      <c r="N20" s="7" t="inlineStr">
         <is>
           <t>-7878503666.77224031839060998632</t>
         </is>
       </c>
-      <c r="O20" s="10" t="inlineStr">
+      <c r="O20" s="7" t="inlineStr">
         <is>
           <t>-43703850913.01643127394573401875</t>
         </is>
       </c>
-      <c r="P20" s="9" t="n">
+      <c r="P20" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -2085,78 +2073,78 @@
       </c>
     </row>
     <row r="22" ht="20" customHeight="1">
-      <c r="A22" s="9" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Tổng thu nhập hoạt động</t>
         </is>
       </c>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>-123353795559</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D22" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F22" s="10" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
         <is>
           <t>-123353795559</t>
         </is>
       </c>
       <c r="G22" s="8" t="inlineStr"/>
-      <c r="H22" s="10" t="inlineStr">
+      <c r="H22" s="7" t="inlineStr">
         <is>
           <t>56330397964.47726503417501562669</t>
         </is>
       </c>
-      <c r="I22" s="10" t="inlineStr">
+      <c r="I22" s="7" t="inlineStr">
         <is>
           <t>31073915244.31006337140545327044</t>
         </is>
       </c>
-      <c r="J22" s="10" t="inlineStr">
+      <c r="J22" s="7" t="inlineStr">
         <is>
           <t>75164381446.23081388989792413752</t>
         </is>
       </c>
-      <c r="K22" s="10" t="inlineStr">
+      <c r="K22" s="7" t="inlineStr">
         <is>
           <t>14953543775.24663308983527500494</t>
         </is>
       </c>
-      <c r="L22" s="10" t="inlineStr">
+      <c r="L22" s="7" t="inlineStr">
         <is>
           <t>43403685144.22320114416392144331</t>
         </is>
       </c>
-      <c r="M22" s="10" t="inlineStr">
+      <c r="M22" s="7" t="inlineStr">
         <is>
           <t>198652215845.43955983890506778746</t>
         </is>
       </c>
-      <c r="N22" s="10" t="inlineStr">
+      <c r="N22" s="7" t="inlineStr">
         <is>
           <t>82590813334.72002702267498433816</t>
         </is>
       </c>
-      <c r="O22" s="10" t="inlineStr">
+      <c r="O22" s="7" t="inlineStr">
         <is>
           <t>502168952754.64756339105764160852</t>
         </is>
       </c>
-      <c r="P22" s="9" t="n">
+      <c r="P22" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -2237,78 +2225,78 @@
       </c>
     </row>
     <row r="24" ht="20" customHeight="1">
-      <c r="A24" s="9" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>CP thuế, phí</t>
         </is>
       </c>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F24" s="10" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="G24" s="8" t="inlineStr"/>
-      <c r="H24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O24" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P24" s="9" t="n">
+      <c r="H24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -2389,78 +2377,78 @@
       </c>
     </row>
     <row r="26" ht="20" customHeight="1">
-      <c r="A26" s="9" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>CP quản lý</t>
         </is>
       </c>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="7" t="inlineStr">
         <is>
           <t>-627109313</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" s="10" t="inlineStr">
+      <c r="C26" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
         <is>
           <t>-627109313</t>
         </is>
       </c>
       <c r="G26" s="8" t="inlineStr"/>
-      <c r="H26" s="10" t="inlineStr">
+      <c r="H26" s="7" t="inlineStr">
         <is>
           <t>-356162358.40540540540659182843</t>
         </is>
       </c>
-      <c r="I26" s="10" t="inlineStr">
+      <c r="I26" s="7" t="inlineStr">
         <is>
           <t>-240733533.22972972972684841667</t>
         </is>
       </c>
-      <c r="J26" s="10" t="inlineStr">
+      <c r="J26" s="7" t="inlineStr">
         <is>
           <t>-544890363.86486486486655975490</t>
         </is>
       </c>
-      <c r="K26" s="10" t="inlineStr">
+      <c r="K26" s="7" t="inlineStr">
         <is>
           <t>-136693618.87837837837990377941</t>
         </is>
       </c>
-      <c r="L26" s="10" t="inlineStr">
+      <c r="L26" s="7" t="inlineStr">
         <is>
           <t>-222914653.87837837837990377941</t>
         </is>
       </c>
-      <c r="M26" s="10" t="inlineStr">
+      <c r="M26" s="7" t="inlineStr">
         <is>
           <t>-1026441570.93243243243327987745</t>
         </is>
       </c>
-      <c r="N26" s="10" t="inlineStr">
+      <c r="N26" s="7" t="inlineStr">
         <is>
           <t>-589810979.81081081081318365686</t>
         </is>
       </c>
-      <c r="O26" s="10" t="inlineStr">
+      <c r="O26" s="7" t="inlineStr">
         <is>
           <t>-3117647079.00000000000627109313</t>
         </is>
       </c>
-      <c r="P26" s="9" t="n">
+      <c r="P26" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -2541,78 +2529,78 @@
       </c>
     </row>
     <row r="28" ht="20" customHeight="1">
-      <c r="A28" s="9" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Chi phí dự phòng</t>
         </is>
       </c>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>-4776001160</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D28" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F28" s="10" t="inlineStr">
+      <c r="C28" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="inlineStr">
         <is>
           <t>-4776001160</t>
         </is>
       </c>
       <c r="G28" s="8" t="inlineStr"/>
-      <c r="H28" s="10" t="inlineStr">
+      <c r="H28" s="7" t="inlineStr">
         <is>
           <t>-40669973709.87287275544666075880</t>
         </is>
       </c>
-      <c r="I28" s="10" t="inlineStr">
+      <c r="I28" s="7" t="inlineStr">
         <is>
           <t>-23217683809.56160727518986316400</t>
         </is>
       </c>
-      <c r="J28" s="10" t="inlineStr">
+      <c r="J28" s="7" t="inlineStr">
         <is>
           <t>-42589758765.99401761303583722800</t>
         </is>
       </c>
-      <c r="K28" s="10" t="inlineStr">
+      <c r="K28" s="7" t="inlineStr">
         <is>
           <t>-6280934801.88596056445912679920</t>
         </is>
       </c>
-      <c r="L28" s="10" t="inlineStr">
+      <c r="L28" s="7" t="inlineStr">
         <is>
           <t>-22274388042.02891811828122463160</t>
         </is>
       </c>
-      <c r="M28" s="10" t="inlineStr">
+      <c r="M28" s="7" t="inlineStr">
         <is>
           <t>-110091539273.93698797822588918680</t>
         </is>
       </c>
-      <c r="N28" s="10" t="inlineStr">
+      <c r="N28" s="7" t="inlineStr">
         <is>
           <t>-85763991389.71963569536139823160</t>
         </is>
       </c>
-      <c r="O28" s="10" t="inlineStr">
+      <c r="O28" s="7" t="inlineStr">
         <is>
           <t>-330888269793.00000000000000000000</t>
         </is>
       </c>
-      <c r="P28" s="9" t="n">
+      <c r="P28" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -2693,78 +2681,78 @@
       </c>
     </row>
     <row r="30" ht="20" customHeight="1">
-      <c r="A30" s="9" t="inlineStr">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>3. Chỉ số tài chính</t>
         </is>
       </c>
-      <c r="B30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F30" s="10" t="inlineStr">
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F30" s="7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="G30" s="8" t="inlineStr"/>
-      <c r="H30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P30" s="9" t="n">
+      <c r="H30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -2845,78 +2833,78 @@
       </c>
     </row>
     <row r="32" ht="20" customHeight="1">
-      <c r="A32" s="9" t="inlineStr">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="B32" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D32" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E32" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F32" s="10" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C32" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F32" s="7" t="inlineStr">
         <is>
           <t>-1580.3061377158918300</t>
         </is>
       </c>
       <c r="G32" s="8" t="inlineStr"/>
-      <c r="H32" s="10" t="inlineStr">
+      <c r="H32" s="7" t="inlineStr">
         <is>
           <t>6.82654127159777545900</t>
         </is>
       </c>
-      <c r="I32" s="10" t="inlineStr">
+      <c r="I32" s="7" t="inlineStr">
         <is>
           <t>2.12695564537264392600</t>
         </is>
       </c>
-      <c r="J32" s="10" t="inlineStr">
+      <c r="J32" s="7" t="inlineStr">
         <is>
           <t>16.72327927448012647900</t>
         </is>
       </c>
-      <c r="K32" s="10" t="inlineStr">
+      <c r="K32" s="7" t="inlineStr">
         <is>
           <t>22.88456879089875931200</t>
         </is>
       </c>
-      <c r="L32" s="10" t="inlineStr">
+      <c r="L32" s="7" t="inlineStr">
         <is>
           <t>25.16787122554788524100</t>
         </is>
       </c>
-      <c r="M32" s="10" t="inlineStr">
+      <c r="M32" s="7" t="inlineStr">
         <is>
           <t>21.61289350296180857900</t>
         </is>
       </c>
-      <c r="N32" s="10" t="inlineStr">
+      <c r="N32" s="7" t="inlineStr">
         <is>
           <t>-17.99027135034477693500</t>
         </is>
       </c>
-      <c r="O32" s="10" t="inlineStr">
+      <c r="O32" s="7" t="inlineStr">
         <is>
           <t>77.35183836051422206100</t>
         </is>
       </c>
-      <c r="P32" s="9" t="n">
+      <c r="P32" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
@@ -2997,78 +2985,78 @@
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
-      <c r="A34" s="9" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>Hiệu suất BQ/ Nhân sự</t>
         </is>
       </c>
-      <c r="B34" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D34" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="inlineStr">
+      <c r="B34" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C34" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E34" s="7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" s="7" t="inlineStr">
         <is>
           <t>-1954398267.01351351</t>
         </is>
       </c>
       <c r="G34" s="8" t="inlineStr"/>
-      <c r="H34" s="10" t="inlineStr">
+      <c r="H34" s="7" t="inlineStr">
         <is>
           <t>654608501.25798146726957578669</t>
         </is>
       </c>
-      <c r="I34" s="10" t="inlineStr">
+      <c r="I34" s="7" t="inlineStr">
         <is>
           <t>130188205.82506901761691543898</t>
         </is>
       </c>
-      <c r="J34" s="10" t="inlineStr">
+      <c r="J34" s="7" t="inlineStr">
         <is>
           <t>771843605.48865044501504625080</t>
         </is>
       </c>
-      <c r="K34" s="10" t="inlineStr">
+      <c r="K34" s="7" t="inlineStr">
         <is>
           <t>947769449.10456693749963715059</t>
         </is>
       </c>
-      <c r="L34" s="10" t="inlineStr">
+      <c r="L34" s="7" t="inlineStr">
         <is>
           <t>2927355106.67128903760094687178</t>
         </is>
       </c>
-      <c r="M34" s="10" t="inlineStr">
+      <c r="M34" s="7" t="inlineStr">
         <is>
           <t>5276988766.84175714703760399133</t>
         </is>
       </c>
-      <c r="N34" s="10" t="inlineStr">
+      <c r="N34" s="7" t="inlineStr">
         <is>
           <t>-1270132381.56754310961436944014</t>
         </is>
       </c>
-      <c r="O34" s="10" t="inlineStr">
+      <c r="O34" s="7" t="inlineStr">
         <is>
           <t>9438621253.62177094242535605003</t>
         </is>
       </c>
-      <c r="P34" s="9" t="n">
+      <c r="P34" s="6" t="n">
         <v>202302</v>
       </c>
     </row>
